--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H2">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I2">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J2">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>0.9281784636617779</v>
+        <v>22.41703935269156</v>
       </c>
       <c r="R2">
-        <v>8.353606172956001</v>
+        <v>201.753354174224</v>
       </c>
       <c r="S2">
-        <v>0.5810295709683274</v>
+        <v>0.8211924706785395</v>
       </c>
       <c r="T2">
-        <v>0.5810295709683272</v>
+        <v>0.8211924706785396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H3">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I3">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J3">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
-        <v>0.3165806058631111</v>
+        <v>2.553303540739556</v>
       </c>
       <c r="R3">
-        <v>2.849225452768</v>
+        <v>22.979731866656</v>
       </c>
       <c r="S3">
-        <v>0.19817599826208</v>
+        <v>0.09353392345989824</v>
       </c>
       <c r="T3">
-        <v>0.19817599826208</v>
+        <v>0.09353392345989824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H4">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I4">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J4">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
-        <v>0.2641767258035556</v>
+        <v>2.130652847593778</v>
       </c>
       <c r="R4">
-        <v>2.377590532232</v>
+        <v>19.175875628344</v>
       </c>
       <c r="S4">
-        <v>0.1653717422486865</v>
+        <v>0.07805116672838963</v>
       </c>
       <c r="T4">
-        <v>0.1653717422486864</v>
+        <v>0.07805116672838965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.098651</v>
       </c>
       <c r="I5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N5">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O5">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P5">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q5">
-        <v>0.05446049281322222</v>
+        <v>0.1630835633808889</v>
       </c>
       <c r="R5">
-        <v>0.4901444353190001</v>
+        <v>1.467752070428</v>
       </c>
       <c r="S5">
-        <v>0.03409167311333001</v>
+        <v>0.005974160647745508</v>
       </c>
       <c r="T5">
-        <v>0.03409167311333</v>
+        <v>0.005974160647745508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.098651</v>
       </c>
       <c r="I6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q6">
         <v>0.01857523793688889</v>
@@ -818,10 +818,10 @@
         <v>0.167177141432</v>
       </c>
       <c r="S6">
-        <v>0.01162789587524621</v>
+        <v>0.0006804576329123512</v>
       </c>
       <c r="T6">
-        <v>0.0116278958752462</v>
+        <v>0.0006804576329123512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.098651</v>
       </c>
       <c r="I7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q7">
         <v>0.01550046164644444</v>
@@ -880,10 +880,10 @@
         <v>0.139504154818</v>
       </c>
       <c r="S7">
-        <v>0.009703119532329978</v>
+        <v>0.0005678208525147337</v>
       </c>
       <c r="T7">
-        <v>0.009703119532329978</v>
+        <v>0.0005678208525147339</v>
       </c>
     </row>
   </sheetData>
